--- a/Terraform/aci/migrate-configs/143b-core01_export_vlan_inf.xlsx
+++ b/Terraform/aci/migrate-configs/143b-core01_export_vlan_inf.xlsx
@@ -99,10 +99,10 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,7 +114,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Extend BD Outside ACI</t>
+          <t>Extend Outside ACI</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
